--- a/Temp_dependent_params_withinhost_Decchanges_with_Topt_shifts.xlsx
+++ b/Temp_dependent_params_withinhost_Decchanges_with_Topt_shifts.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -14,36 +14,36 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">TMI</t>
+    <t>TMI</t>
   </si>
   <si>
-    <t xml:space="preserve">TMD</t>
+    <t>TMD</t>
   </si>
   <si>
-    <t xml:space="preserve">TB</t>
+    <t>TB</t>
   </si>
   <si>
-    <t xml:space="preserve">temp</t>
+    <t>temp</t>
   </si>
   <si>
-    <t xml:space="preserve">toptshift</t>
+    <t>toptshift</t>
   </si>
   <si>
-    <t xml:space="preserve">Hosttopt</t>
+    <t>Hosttopt</t>
   </si>
   <si>
-    <t xml:space="preserve">Toptdiff</t>
+    <t>Toptdiff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,7 +54,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -72,297 +72,16 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -395,19 +114,19 @@
         <v>0.741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.482178518088864</v>
+        <v>0.48217851808886364</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="n">
         <v>26.2</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +137,19 @@
         <v>0.998</v>
       </c>
       <c r="C3" t="n">
-        <v>0.583363514572354</v>
+        <v>0.5833635145723541</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F3" t="n">
         <v>26.2</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
@@ -444,16 +163,16 @@
         <v>0.687012452887447</v>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n">
         <v>26.2</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
@@ -464,19 +183,19 @@
         <v>0.481</v>
       </c>
       <c r="C5" t="n">
-        <v>0.788375070723415</v>
+        <v>0.7883750707234152</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="n">
         <v>26.2</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
@@ -487,19 +206,19 @@
         <v>0.286</v>
       </c>
       <c r="C6" t="n">
-        <v>0.880821075975321</v>
+        <v>0.8808210759753207</v>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F6" t="n">
         <v>26.2</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,19 +229,19 @@
         <v>0.181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.95532157457466</v>
+        <v>0.9553215745746599</v>
       </c>
       <c r="D7" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F7" t="n">
         <v>26.2</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8">
@@ -533,19 +252,19 @@
         <v>0.574</v>
       </c>
       <c r="C8" t="n">
-        <v>0.482178518088864</v>
+        <v>0.48217851808886364</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="F8" t="n">
         <v>27.2</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
@@ -556,19 +275,19 @@
         <v>0.907</v>
       </c>
       <c r="C9" t="n">
-        <v>0.583363514572354</v>
+        <v>0.5833635145723541</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="F9" t="n">
         <v>27.2</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="10">
@@ -582,16 +301,16 @@
         <v>0.687012452887447</v>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="F10" t="n">
         <v>27.2</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
@@ -602,19 +321,19 @@
         <v>0.63</v>
       </c>
       <c r="C11" t="n">
-        <v>0.788375070723415</v>
+        <v>0.7883750707234152</v>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="F11" t="n">
         <v>27.2</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
@@ -625,19 +344,19 @@
         <v>0.368</v>
       </c>
       <c r="C12" t="n">
-        <v>0.880821075975321</v>
+        <v>0.8808210759753207</v>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="F12" t="n">
         <v>27.2</v>
       </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="13">
@@ -648,19 +367,19 @@
         <v>0.226</v>
       </c>
       <c r="C13" t="n">
-        <v>0.95532157457466</v>
+        <v>0.9553215745746599</v>
       </c>
       <c r="D13" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="F13" t="n">
         <v>27.2</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="14">
@@ -671,19 +390,19 @@
         <v>0.438</v>
       </c>
       <c r="C14" t="n">
-        <v>0.482178518088864</v>
+        <v>0.48217851808886364</v>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="F14" t="n">
         <v>28.2</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
@@ -694,19 +413,19 @@
         <v>0.741</v>
       </c>
       <c r="C15" t="n">
-        <v>0.583363514572354</v>
+        <v>0.5833635145723541</v>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="F15" t="n">
         <v>28.2</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="16">
@@ -720,16 +439,16 @@
         <v>0.687012452887447</v>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="F16" t="n">
         <v>28.2</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
@@ -740,19 +459,19 @@
         <v>0.803</v>
       </c>
       <c r="C17" t="n">
-        <v>0.788375070723415</v>
+        <v>0.7883750707234152</v>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="F17" t="n">
         <v>28.2</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="18">
@@ -763,19 +482,19 @@
         <v>0.481</v>
       </c>
       <c r="C18" t="n">
-        <v>0.880821075975321</v>
+        <v>0.8808210759753207</v>
       </c>
       <c r="D18" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="F18" t="n">
         <v>28.2</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="19">
@@ -786,19 +505,19 @@
         <v>0.286</v>
       </c>
       <c r="C19" t="n">
-        <v>0.95532157457466</v>
+        <v>0.9553215745746599</v>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="F19" t="n">
         <v>28.2</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="20">
@@ -809,19 +528,19 @@
         <v>0.336</v>
       </c>
       <c r="C20" t="n">
-        <v>0.482178518088864</v>
+        <v>0.48217851808886364</v>
       </c>
       <c r="D20" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="F20" t="n">
         <v>29.2</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="21">
@@ -832,19 +551,19 @@
         <v>0.574</v>
       </c>
       <c r="C21" t="n">
-        <v>0.583363514572354</v>
+        <v>0.5833635145723541</v>
       </c>
       <c r="D21" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="F21" t="n">
         <v>29.2</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="22">
@@ -858,16 +577,16 @@
         <v>0.687012452887447</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="F22" t="n">
         <v>29.2</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="23">
@@ -878,19 +597,19 @@
         <v>0.952</v>
       </c>
       <c r="C23" t="n">
-        <v>0.788375070723415</v>
+        <v>0.7883750707234152</v>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="F23" t="n">
         <v>29.2</v>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="24">
@@ -901,19 +620,19 @@
         <v>0.63</v>
       </c>
       <c r="C24" t="n">
-        <v>0.880821075975321</v>
+        <v>0.8808210759753207</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="F24" t="n">
         <v>29.2</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="25">
@@ -924,19 +643,19 @@
         <v>0.368</v>
       </c>
       <c r="C25" t="n">
-        <v>0.95532157457466</v>
+        <v>0.9553215745746599</v>
       </c>
       <c r="D25" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="F25" t="n">
         <v>29.2</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="26">
@@ -947,19 +666,19 @@
         <v>0.262</v>
       </c>
       <c r="C26" t="n">
-        <v>0.482178518088864</v>
+        <v>0.48217851808886364</v>
       </c>
       <c r="D26" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="F26" t="n">
         <v>30.2</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
@@ -970,19 +689,19 @@
         <v>0.438</v>
       </c>
       <c r="C27" t="n">
-        <v>0.583363514572354</v>
+        <v>0.5833635145723541</v>
       </c>
       <c r="D27" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="F27" t="n">
         <v>30.2</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
@@ -996,16 +715,16 @@
         <v>0.687012452887447</v>
       </c>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="F28" t="n">
         <v>30.2</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
@@ -1016,19 +735,19 @@
         <v>0.998</v>
       </c>
       <c r="C29" t="n">
-        <v>0.788375070723415</v>
+        <v>0.7883750707234152</v>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="F29" t="n">
         <v>30.2</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
@@ -1039,19 +758,19 @@
         <v>0.803</v>
       </c>
       <c r="C30" t="n">
-        <v>0.880821075975321</v>
+        <v>0.8808210759753207</v>
       </c>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="F30" t="n">
         <v>30.2</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
@@ -1062,19 +781,19 @@
         <v>0.481</v>
       </c>
       <c r="C31" t="n">
-        <v>0.95532157457466</v>
+        <v>0.9553215745746599</v>
       </c>
       <c r="D31" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="F31" t="n">
         <v>30.2</v>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
@@ -1085,19 +804,19 @@
         <v>0.209</v>
       </c>
       <c r="C32" t="n">
-        <v>0.482178518088864</v>
+        <v>0.48217851808886364</v>
       </c>
       <c r="D32" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="F32" t="n">
         <v>31.2</v>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="33">
@@ -1108,19 +827,19 @@
         <v>0.336</v>
       </c>
       <c r="C33" t="n">
-        <v>0.583363514572354</v>
+        <v>0.5833635145723541</v>
       </c>
       <c r="D33" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="F33" t="n">
         <v>31.2</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
@@ -1134,16 +853,16 @@
         <v>0.687012452887447</v>
       </c>
       <c r="D34" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="F34" t="n">
         <v>31.2</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="35">
@@ -1154,19 +873,19 @@
         <v>0.907</v>
       </c>
       <c r="C35" t="n">
-        <v>0.788375070723415</v>
+        <v>0.7883750707234152</v>
       </c>
       <c r="D35" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="F35" t="n">
         <v>31.2</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="36">
@@ -1177,19 +896,19 @@
         <v>0.952</v>
       </c>
       <c r="C36" t="n">
-        <v>0.880821075975321</v>
+        <v>0.8808210759753207</v>
       </c>
       <c r="D36" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="F36" t="n">
         <v>31.2</v>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="37">
@@ -1200,19 +919,19 @@
         <v>0.63</v>
       </c>
       <c r="C37" t="n">
-        <v>0.95532157457466</v>
+        <v>0.9553215745746599</v>
       </c>
       <c r="D37" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="F37" t="n">
         <v>31.2</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="38">
@@ -1223,19 +942,19 @@
         <v>0.169</v>
       </c>
       <c r="C38" t="n">
-        <v>0.482178518088864</v>
+        <v>0.48217851808886364</v>
       </c>
       <c r="D38" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="F38" t="n">
         <v>32.2</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="39">
@@ -1246,19 +965,19 @@
         <v>0.262</v>
       </c>
       <c r="C39" t="n">
-        <v>0.583363514572354</v>
+        <v>0.5833635145723541</v>
       </c>
       <c r="D39" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="F39" t="n">
         <v>32.2</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="40">
@@ -1272,16 +991,16 @@
         <v>0.687012452887447</v>
       </c>
       <c r="D40" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="E40" t="n">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="F40" t="n">
         <v>32.2</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="41">
@@ -1292,19 +1011,19 @@
         <v>0.741</v>
       </c>
       <c r="C41" t="n">
-        <v>0.788375070723415</v>
+        <v>0.7883750707234152</v>
       </c>
       <c r="D41" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="F41" t="n">
         <v>32.2</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="42">
@@ -1315,19 +1034,19 @@
         <v>0.998</v>
       </c>
       <c r="C42" t="n">
-        <v>0.880821075975321</v>
+        <v>0.8808210759753207</v>
       </c>
       <c r="D42" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="E42" t="n">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="F42" t="n">
         <v>32.2</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="43">
@@ -1338,19 +1057,19 @@
         <v>0.803</v>
       </c>
       <c r="C43" t="n">
-        <v>0.95532157457466</v>
+        <v>0.9553215745746599</v>
       </c>
       <c r="D43" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="F43" t="n">
         <v>32.2</v>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="44">
@@ -1361,19 +1080,19 @@
         <v>0.139</v>
       </c>
       <c r="C44" t="n">
-        <v>0.482178518088864</v>
+        <v>0.48217851808886364</v>
       </c>
       <c r="D44" t="n">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="F44" t="n">
         <v>33.2</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="45">
@@ -1384,19 +1103,19 @@
         <v>0.209</v>
       </c>
       <c r="C45" t="n">
-        <v>0.583363514572354</v>
+        <v>0.5833635145723541</v>
       </c>
       <c r="D45" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="F45" t="n">
         <v>33.2</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
@@ -1410,16 +1129,16 @@
         <v>0.687012452887447</v>
       </c>
       <c r="D46" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="F46" t="n">
         <v>33.2</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
@@ -1430,19 +1149,19 @@
         <v>0.574</v>
       </c>
       <c r="C47" t="n">
-        <v>0.788375070723415</v>
+        <v>0.7883750707234152</v>
       </c>
       <c r="D47" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="F47" t="n">
         <v>33.2</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
@@ -1453,19 +1172,19 @@
         <v>0.907</v>
       </c>
       <c r="C48" t="n">
-        <v>0.880821075975321</v>
+        <v>0.8808210759753207</v>
       </c>
       <c r="D48" t="n">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="F48" t="n">
         <v>33.2</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
@@ -1476,23 +1195,22 @@
         <v>0.952</v>
       </c>
       <c r="C49" t="n">
-        <v>0.95532157457466</v>
+        <v>0.9553215745746599</v>
       </c>
       <c r="D49" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="F49" t="n">
         <v>33.2</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>